--- a/PL/Cenas_assign2_outro_tropa/EpiResumeNNetsPLxGy.xlsx
+++ b/PL/Cenas_assign2_outro_tropa/EpiResumeNNetsPLxGy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\MATLAB\Assignement2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\Cenas_assign2_outro_tropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E46F1EA-0204-4EEB-A948-8BFE5759B523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D50E1-AC20-4C56-B9BE-1EA2EABDD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="2580" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -271,14 +271,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +294,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,14 +578,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="122.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
@@ -601,34 +602,34 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
@@ -637,50 +638,50 @@
       <c r="C4">
         <v>54802</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -705,7 +706,7 @@
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
@@ -718,7 +719,7 @@
       <c r="M6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="1"/>
@@ -963,50 +964,50 @@
       <c r="C15">
         <v>112502</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1031,7 +1032,7 @@
       <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1045,7 @@
       <c r="M17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="14"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="1"/>
@@ -1268,13 +1269,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="N16:N17"/>
     <mergeCell ref="D1:N1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="E4:I4"/>
@@ -1284,6 +1278,13 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/Cenas_assign2_outro_tropa/EpiResumeNNetsPLxGy.xlsx
+++ b/PL/Cenas_assign2_outro_tropa/EpiResumeNNetsPLxGy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\Cenas_assign2_outro_tropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D50E1-AC20-4C56-B9BE-1EA2EABDD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901724C7-189E-4308-B475-B19D88CCAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2580" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1665" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -274,6 +274,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,12 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,13 +578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="122.140625" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -602,34 +602,34 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
@@ -638,50 +638,50 @@
       <c r="C4">
         <v>54802</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="M6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="1"/>
@@ -964,50 +964,50 @@
       <c r="C15">
         <v>112502</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="M17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="1"/>
@@ -1269,6 +1269,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="N16:N17"/>
     <mergeCell ref="D1:N1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="E4:I4"/>
@@ -1278,13 +1285,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
